--- a/config_2.9/fish3d_config.xlsx
+++ b/config_2.9/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="433">
   <si>
     <t>line|行号</t>
   </si>
@@ -2517,7 +2517,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Fish3D089</t>
+    <t>Fish3DHB</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hby</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hby</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hby</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3203,7 +3215,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8967,16 +8979,16 @@
         <v>429</v>
       </c>
       <c r="D63" s="53" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="E63" s="53" t="s">
         <v>416</v>
       </c>
       <c r="F63" s="53" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="G63" s="53" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="H63" s="53" t="s">
         <v>218</v>

--- a/config_2.9/fish3d_config.xlsx
+++ b/config_2.9/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="434">
   <si>
     <t>line|行号</t>
   </si>
@@ -2530,6 +2530,10 @@
   </si>
   <si>
     <t>by_iocn_hby</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3215,7 +3219,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8982,7 +8986,7 @@
         <v>430</v>
       </c>
       <c r="E63" s="53" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="F63" s="53" t="s">
         <v>431</v>
